--- a/Task 4/Code/Planes_Data/JETSTAR_FC3.xlsx
+++ b/Task 4/Code/Planes_Data/JETSTAR_FC3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\forth year\second term\control\Task_3\Task_4\Task_4_final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\forth year\second term\control\Autopilot project\Autopilot-project\Task 4\Code\Planes_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>7</v>
